--- a/Raw data/Fossils removed.xlsx
+++ b/Raw data/Fossils removed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellen Coombs\Desktop\Github files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140CDC29-E485-4E78-B4B6-5326804FA831}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{034378D9-97F7-4A58-A1BF-41B76100DF9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{4A7806F4-8933-4FAF-9D37-96A09189B95D}"/>
   </bookViews>
@@ -373,12 +373,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -395,7 +401,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E66F39-B013-41E1-99A0-4461A88F86FB}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16364,7 +16370,7 @@
         <v>91</v>
       </c>
       <c r="E91">
-        <v>0.16911177900000005</v>
+        <v>0.16911177899999999</v>
       </c>
       <c r="F91">
         <v>1.137459E-3</v>

--- a/Raw data/Fossils removed.xlsx
+++ b/Raw data/Fossils removed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ellen Coombs\Desktop\Github files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Model checks\Github files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{034378D9-97F7-4A58-A1BF-41B76100DF9F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F8208-9BB6-400E-9149-68F5748AD07A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{4A7806F4-8933-4FAF-9D37-96A09189B95D}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>Mesoplodon stejnegeri USNM 504330</t>
   </si>
   <si>
-    <t>Mesoplodon traversii (juvenile) NMNZ TMP013005</t>
-  </si>
-  <si>
     <t>Monodon monoceros USNM 267959</t>
   </si>
   <si>
@@ -355,6 +352,9 @@
   </si>
   <si>
     <t>ODONTOCETES</t>
+  </si>
+  <si>
+    <t>Mesoplodon traversii (juvenile) NMNZ TMP012996</t>
   </si>
 </sst>
 </file>
@@ -718,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78E66F39-B013-41E1-99A0-4461A88F86FB}">
   <dimension ref="A1:BJ95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -729,12 +729,12 @@
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.45">
@@ -9011,7 +9011,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -9199,7 +9199,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -9387,10 +9387,10 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" t="s">
         <v>56</v>
-      </c>
-      <c r="C49" t="s">
-        <v>57</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
@@ -9575,10 +9575,10 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
@@ -9763,7 +9763,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C51" t="s">
         <v>10</v>
@@ -9951,7 +9951,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
         <v>10</v>
@@ -10139,7 +10139,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>10</v>
@@ -10327,7 +10327,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>10</v>
@@ -10515,10 +10515,10 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
         <v>6</v>
@@ -10703,10 +10703,10 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D56" t="s">
         <v>6</v>
@@ -10891,10 +10891,10 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
         <v>6</v>
@@ -11079,10 +11079,10 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
         <v>6</v>
@@ -11267,10 +11267,10 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D59" t="s">
         <v>6</v>
@@ -11455,10 +11455,10 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" t="s">
         <v>68</v>
-      </c>
-      <c r="C60" t="s">
-        <v>69</v>
       </c>
       <c r="D60" t="s">
         <v>6</v>
@@ -11643,10 +11643,10 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
         <v>70</v>
-      </c>
-      <c r="C61" t="s">
-        <v>71</v>
       </c>
       <c r="D61" t="s">
         <v>6</v>
@@ -11831,10 +11831,10 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
         <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
       </c>
       <c r="D62" t="s">
         <v>6</v>
@@ -12019,7 +12019,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -12207,7 +12207,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
         <v>10</v>
@@ -12395,7 +12395,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
         <v>10</v>
@@ -12583,7 +12583,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -12771,7 +12771,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" t="s">
         <v>10</v>
@@ -12959,7 +12959,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" t="s">
         <v>10</v>
@@ -13147,7 +13147,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
         <v>10</v>
@@ -13335,7 +13335,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
         <v>10</v>
@@ -13523,7 +13523,7 @@
         <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" t="s">
         <v>10</v>
@@ -13711,7 +13711,7 @@
         <v>69</v>
       </c>
       <c r="B72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -13899,7 +13899,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>10</v>
@@ -14087,7 +14087,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -14275,7 +14275,7 @@
         <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -14460,7 +14460,7 @@
     </row>
     <row r="76" spans="1:62" x14ac:dyDescent="0.45">
       <c r="D76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E76">
         <v>21.055875296499995</v>
@@ -14468,7 +14468,7 @@
     </row>
     <row r="77" spans="1:62" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E77" s="1">
         <v>0.29244271245138881</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="80" spans="1:62" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:62" x14ac:dyDescent="0.45">
@@ -14669,13 +14669,13 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
+        <v>88</v>
+      </c>
+      <c r="C82" t="s">
         <v>89</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>90</v>
-      </c>
-      <c r="D82" t="s">
-        <v>91</v>
       </c>
       <c r="E82">
         <v>0.143401732</v>
@@ -14857,13 +14857,13 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>93</v>
-      </c>
       <c r="D83" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E83">
         <v>0.127780376</v>
@@ -15045,13 +15045,13 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E84">
         <v>0.11944416599999999</v>
@@ -15233,13 +15233,13 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E85">
         <v>0.11484437899999995</v>
@@ -15421,13 +15421,13 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E86">
         <v>0.12041640199999999</v>
@@ -15609,13 +15609,13 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D87" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E87">
         <v>0.18447319199999995</v>
@@ -15797,13 +15797,13 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E88">
         <v>0.12375140399999997</v>
@@ -15985,13 +15985,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E89">
         <v>0.11939832499999997</v>
@@ -16173,13 +16173,13 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
+        <v>99</v>
+      </c>
+      <c r="C90" t="s">
         <v>100</v>
       </c>
-      <c r="C90" t="s">
-        <v>101</v>
-      </c>
       <c r="D90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <v>0.14493163199999998</v>
@@ -16361,13 +16361,13 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C91" t="s">
+        <v>89</v>
+      </c>
+      <c r="D91" t="s">
         <v>90</v>
-      </c>
-      <c r="D91" t="s">
-        <v>91</v>
       </c>
       <c r="E91">
         <v>0.16911177899999999</v>
@@ -16549,13 +16549,13 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
         <v>90</v>
-      </c>
-      <c r="D92" t="s">
-        <v>91</v>
       </c>
       <c r="E92">
         <v>0.16351493600000011</v>
@@ -16737,13 +16737,13 @@
         <v>12</v>
       </c>
       <c r="B93" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E93">
         <v>0.16838010040000001</v>
@@ -16922,7 +16922,7 @@
     </row>
     <row r="94" spans="1:62" x14ac:dyDescent="0.45">
       <c r="D94" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E94">
         <v>1.6994484234000002</v>
@@ -16930,7 +16930,7 @@
     </row>
     <row r="95" spans="1:62" x14ac:dyDescent="0.45">
       <c r="D95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95" s="1">
         <v>0.14162070195000001</v>
